--- a/Sberbank/wwwroot/Upload/Исходные.xlsx
+++ b/Sberbank/wwwroot/Upload/Исходные.xlsx
@@ -44,10 +44,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="165" formatCode="###\ ###\ ###\ ##0.00"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -144,9 +140,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,9 +151,12 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection sqref="A1:D182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,28 +464,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
